--- a/Code/Results/Cases/Case_0_133/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_133/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.142525689437232</v>
+        <v>4.914374398633892</v>
       </c>
       <c r="D2">
-        <v>6.01979644803891</v>
+        <v>7.947514790248945</v>
       </c>
       <c r="E2">
-        <v>10.3664665463312</v>
+        <v>13.174742132032</v>
       </c>
       <c r="F2">
-        <v>29.75250225430405</v>
+        <v>38.767471982248</v>
       </c>
       <c r="G2">
-        <v>37.7583131337832</v>
+        <v>44.79128294397915</v>
       </c>
       <c r="H2">
-        <v>11.69697052561087</v>
+        <v>18.12062112128907</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.513252389167526</v>
+        <v>10.14078818510916</v>
       </c>
       <c r="K2">
-        <v>24.66199098027914</v>
+        <v>19.01930553588639</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.633963119720264</v>
+        <v>4.752283267633945</v>
       </c>
       <c r="D3">
-        <v>5.735990228575403</v>
+        <v>7.896805767506206</v>
       </c>
       <c r="E3">
-        <v>9.919292625883827</v>
+        <v>13.12060197606458</v>
       </c>
       <c r="F3">
-        <v>28.88874482478153</v>
+        <v>38.81922246966382</v>
       </c>
       <c r="G3">
-        <v>36.42261587939106</v>
+        <v>44.82755715438158</v>
       </c>
       <c r="H3">
-        <v>11.62901850849487</v>
+        <v>18.19467524776741</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.398994577419755</v>
+        <v>10.152379113861</v>
       </c>
       <c r="K3">
-        <v>22.96097370948407</v>
+        <v>18.47782554612911</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.305859327567309</v>
+        <v>4.651546961308906</v>
       </c>
       <c r="D4">
-        <v>5.556272358343055</v>
+        <v>7.866196549291487</v>
       </c>
       <c r="E4">
-        <v>9.641597921929254</v>
+        <v>13.08983786114731</v>
       </c>
       <c r="F4">
-        <v>28.3945510344908</v>
+        <v>38.864911999623</v>
       </c>
       <c r="G4">
-        <v>35.65719781617419</v>
+        <v>44.87057412266776</v>
       </c>
       <c r="H4">
-        <v>11.60432998666226</v>
+        <v>18.24513601421002</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.332924252004886</v>
+        <v>10.16134422693544</v>
       </c>
       <c r="K4">
-        <v>21.85950327791093</v>
+        <v>18.14020720115404</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.16810717468639</v>
+        <v>4.610264573821107</v>
       </c>
       <c r="D5">
-        <v>5.481731969661307</v>
+        <v>7.853863581349735</v>
       </c>
       <c r="E5">
-        <v>9.527773589316833</v>
+        <v>13.07793262852692</v>
       </c>
       <c r="F5">
-        <v>28.20214758027655</v>
+        <v>38.8870086403184</v>
       </c>
       <c r="G5">
-        <v>35.35897376205744</v>
+        <v>44.89328051290686</v>
       </c>
       <c r="H5">
-        <v>11.59831007766969</v>
+        <v>18.26694769475153</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.307011747956929</v>
+        <v>10.16546172490762</v>
       </c>
       <c r="K5">
-        <v>21.39612552270328</v>
+        <v>18.001537295394</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.144987315461466</v>
+        <v>4.603397918857534</v>
       </c>
       <c r="D6">
-        <v>5.46927813667732</v>
+        <v>7.851824424944985</v>
       </c>
       <c r="E6">
-        <v>9.508837259616904</v>
+        <v>13.07599413442354</v>
       </c>
       <c r="F6">
-        <v>28.17073810896756</v>
+        <v>38.89088715909174</v>
       </c>
       <c r="G6">
-        <v>35.31027781654215</v>
+        <v>44.89736228544169</v>
       </c>
       <c r="H6">
-        <v>11.59754744434587</v>
+        <v>18.27064472062479</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.302769638869964</v>
+        <v>10.16617344526376</v>
       </c>
       <c r="K6">
-        <v>21.31830005231754</v>
+        <v>17.97845185869432</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.304018021784712</v>
+        <v>4.650991049560919</v>
       </c>
       <c r="D7">
-        <v>5.555272258482712</v>
+        <v>7.866029642853883</v>
       </c>
       <c r="E7">
-        <v>9.640065344698739</v>
+        <v>13.08967473618697</v>
       </c>
       <c r="F7">
-        <v>28.39191999723553</v>
+        <v>38.86519595102842</v>
       </c>
       <c r="G7">
-        <v>35.6531205545796</v>
+        <v>44.87085944563936</v>
       </c>
       <c r="H7">
-        <v>11.60423275922257</v>
+        <v>18.24542512786603</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.33257071130982</v>
+        <v>10.16139787856122</v>
       </c>
       <c r="K7">
-        <v>21.85331302045975</v>
+        <v>18.13834117188807</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.970422739664826</v>
+        <v>4.858779156810874</v>
       </c>
       <c r="D8">
-        <v>5.923110270101661</v>
+        <v>7.929926045837095</v>
       </c>
       <c r="E8">
-        <v>10.21299856237031</v>
+        <v>13.15556542900794</v>
       </c>
       <c r="F8">
-        <v>29.44711644330243</v>
+        <v>38.78241555665657</v>
       </c>
       <c r="G8">
-        <v>37.28638290023112</v>
+        <v>44.79946246730119</v>
       </c>
       <c r="H8">
-        <v>11.66985939812429</v>
+        <v>18.14511512285735</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.472999363521622</v>
+        <v>10.14440079792926</v>
       </c>
       <c r="K8">
-        <v>24.08720929417703</v>
+        <v>18.83379156042855</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.154567550758276</v>
+        <v>5.253691665083892</v>
       </c>
       <c r="D9">
-        <v>6.598801263560921</v>
+        <v>8.059036481984332</v>
       </c>
       <c r="E9">
-        <v>11.307367519498</v>
+        <v>13.30404566854689</v>
       </c>
       <c r="F9">
-        <v>31.80739437840104</v>
+        <v>38.73132801624955</v>
       </c>
       <c r="G9">
-        <v>40.92512816402009</v>
+        <v>44.8255683613028</v>
       </c>
       <c r="H9">
-        <v>11.94452059170999</v>
+        <v>17.9883015070056</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.781509258746087</v>
+        <v>10.12575849490272</v>
       </c>
       <c r="K9">
-        <v>28.02379413144773</v>
+        <v>20.14832106888554</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.954365401195068</v>
+        <v>5.532625868429681</v>
       </c>
       <c r="D10">
-        <v>7.065249092740293</v>
+        <v>8.155717858429089</v>
       </c>
       <c r="E10">
-        <v>12.08956204193293</v>
+        <v>13.42430830883723</v>
       </c>
       <c r="F10">
-        <v>33.72519776441058</v>
+        <v>38.76259916576542</v>
       </c>
       <c r="G10">
-        <v>43.86817926342943</v>
+        <v>44.94769917870005</v>
       </c>
       <c r="H10">
-        <v>12.2500425769416</v>
+        <v>17.89780368532932</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.02951790306431</v>
+        <v>10.12104454207346</v>
       </c>
       <c r="K10">
-        <v>30.65802057676192</v>
+        <v>21.07382084891195</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.304103642087224</v>
+        <v>5.656448000749541</v>
       </c>
       <c r="D11">
-        <v>7.270729606359402</v>
+        <v>8.199988515773597</v>
       </c>
       <c r="E11">
-        <v>12.4402999832421</v>
+        <v>13.48130983141607</v>
       </c>
       <c r="F11">
-        <v>34.63944632106076</v>
+        <v>38.7919226883493</v>
       </c>
       <c r="G11">
-        <v>45.2675325204232</v>
+        <v>45.02584792182532</v>
       </c>
       <c r="H11">
-        <v>12.414727403299</v>
+        <v>17.86208217821297</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.14729913280924</v>
+        <v>10.12085407813752</v>
       </c>
       <c r="K11">
-        <v>31.80349146150152</v>
+        <v>21.48422390287061</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.434618630268147</v>
+        <v>5.702849411337894</v>
       </c>
       <c r="D12">
-        <v>7.34757224583248</v>
+        <v>8.216785079523611</v>
       </c>
       <c r="E12">
-        <v>12.57238644866456</v>
+        <v>13.50321224594354</v>
       </c>
       <c r="F12">
-        <v>34.99188730939935</v>
+        <v>38.80520623434451</v>
       </c>
       <c r="G12">
-        <v>45.80642113314634</v>
+        <v>45.05869860830145</v>
       </c>
       <c r="H12">
-        <v>12.48105026716692</v>
+        <v>17.84934513312908</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.192646837509376</v>
+        <v>10.12106296647934</v>
       </c>
       <c r="K12">
-        <v>32.22993747978283</v>
+        <v>21.63796907814046</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.406593662387348</v>
+        <v>5.692878396274287</v>
       </c>
       <c r="D13">
-        <v>7.331065818946484</v>
+        <v>8.213166356294115</v>
       </c>
       <c r="E13">
-        <v>12.54397145639327</v>
+        <v>13.49848126906081</v>
       </c>
       <c r="F13">
-        <v>34.9157012169147</v>
+        <v>38.80224835592267</v>
       </c>
       <c r="G13">
-        <v>45.68995639680146</v>
+        <v>45.05147867575287</v>
       </c>
       <c r="H13">
-        <v>12.46658602033237</v>
+        <v>17.85205304642086</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.182846583136082</v>
+        <v>10.12100548131439</v>
       </c>
       <c r="K13">
-        <v>32.13841541731164</v>
+        <v>21.60493345799927</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.314879101588849</v>
+        <v>5.660275487286752</v>
       </c>
       <c r="D14">
-        <v>7.277070886236818</v>
+        <v>8.201369787482077</v>
       </c>
       <c r="E14">
-        <v>12.45118135627389</v>
+        <v>13.48310547369811</v>
       </c>
       <c r="F14">
-        <v>34.66831536664699</v>
+        <v>38.79297181876665</v>
       </c>
       <c r="G14">
-        <v>45.31168509075812</v>
+        <v>45.02848525524552</v>
       </c>
       <c r="H14">
-        <v>12.42010291251256</v>
+        <v>17.86101842477414</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.151014736420465</v>
+        <v>10.12086563184188</v>
       </c>
       <c r="K14">
-        <v>31.83872039920696</v>
+        <v>21.49690674239621</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.258454076887793</v>
+        <v>5.64024050863063</v>
       </c>
       <c r="D15">
-        <v>7.243871398448095</v>
+        <v>8.194147964641768</v>
       </c>
       <c r="E15">
-        <v>12.39425009468021</v>
+        <v>13.47372827723907</v>
       </c>
       <c r="F15">
-        <v>34.51760416626956</v>
+        <v>38.7875736861485</v>
       </c>
       <c r="G15">
-        <v>45.0811634776036</v>
+        <v>45.01482549228703</v>
       </c>
       <c r="H15">
-        <v>12.39215439210009</v>
+        <v>17.86661304524489</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.131615146836548</v>
+        <v>10.12081656505442</v>
       </c>
       <c r="K15">
-        <v>31.65420424820703</v>
+        <v>21.43051644500734</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.931234166470299</v>
+        <v>5.524468012057516</v>
       </c>
       <c r="D16">
-        <v>7.05168489744048</v>
+        <v>8.15282969146482</v>
       </c>
       <c r="E16">
-        <v>12.06653764531586</v>
+        <v>13.42062820854353</v>
       </c>
       <c r="F16">
-        <v>33.66630833544938</v>
+        <v>38.76098738976163</v>
       </c>
       <c r="G16">
-        <v>43.77796734723893</v>
+        <v>44.94304746963446</v>
       </c>
       <c r="H16">
-        <v>12.23981966314725</v>
+        <v>17.90024834380861</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.021923107785148</v>
+        <v>10.12109631394284</v>
       </c>
       <c r="K16">
-        <v>30.58212122087837</v>
+        <v>21.04677426346608</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.726955721246355</v>
+        <v>5.452625282199937</v>
       </c>
       <c r="D17">
-        <v>6.932060337133191</v>
+        <v>8.127549782873881</v>
       </c>
       <c r="E17">
-        <v>11.86418658741081</v>
+        <v>13.38863163328007</v>
       </c>
       <c r="F17">
-        <v>33.15491380584654</v>
+        <v>38.74855133924987</v>
       </c>
       <c r="G17">
-        <v>42.99416360810665</v>
+        <v>44.90480842360486</v>
       </c>
       <c r="H17">
-        <v>12.15313611912307</v>
+        <v>17.9222822968123</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.955922438597906</v>
+        <v>10.12176845111241</v>
       </c>
       <c r="K17">
-        <v>29.91108749933847</v>
+        <v>20.80853927543847</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.608126787847752</v>
+        <v>5.411017050743381</v>
       </c>
       <c r="D18">
-        <v>6.862623497737469</v>
+        <v>8.113037294449576</v>
       </c>
       <c r="E18">
-        <v>11.74731922443728</v>
+        <v>13.37044470991657</v>
       </c>
       <c r="F18">
-        <v>32.86469355310089</v>
+        <v>38.7428192436333</v>
       </c>
       <c r="G18">
-        <v>42.5490157207576</v>
+        <v>44.88494056629839</v>
       </c>
       <c r="H18">
-        <v>12.1056810890078</v>
+        <v>17.93546789172781</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.918425155818274</v>
+        <v>10.12233896655937</v>
       </c>
       <c r="K18">
-        <v>29.52013357092019</v>
+        <v>20.67052146768999</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.567661372317202</v>
+        <v>5.396881563383083</v>
       </c>
       <c r="D19">
-        <v>6.839005126838144</v>
+        <v>8.108128685389037</v>
       </c>
       <c r="E19">
-        <v>11.70766782362645</v>
+        <v>13.36432451759952</v>
       </c>
       <c r="F19">
-        <v>32.76709775137279</v>
+        <v>38.74112217791173</v>
       </c>
       <c r="G19">
-        <v>42.39926464030025</v>
+        <v>44.87857845554043</v>
       </c>
       <c r="H19">
-        <v>12.09001840605693</v>
+        <v>17.94002007927481</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.905808120014576</v>
+        <v>10.1225637183139</v>
       </c>
       <c r="K19">
-        <v>29.38689761811184</v>
+        <v>20.62362522623256</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.748838796039928</v>
+        <v>5.460303035792886</v>
       </c>
       <c r="D20">
-        <v>6.944860041709947</v>
+        <v>8.130238058657387</v>
       </c>
       <c r="E20">
-        <v>11.88577699528143</v>
+        <v>13.3920153895428</v>
       </c>
       <c r="F20">
-        <v>33.20894552537095</v>
+        <v>38.74972806297396</v>
       </c>
       <c r="G20">
-        <v>43.07701188476542</v>
+        <v>44.90865889401325</v>
       </c>
       <c r="H20">
-        <v>12.16211313013686</v>
+        <v>17.91988368023272</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.962900026924101</v>
+        <v>10.12167786527288</v>
       </c>
       <c r="K20">
-        <v>29.98303500436277</v>
+        <v>20.83400345213321</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.341869208340821</v>
+        <v>5.669865322590638</v>
       </c>
       <c r="D21">
-        <v>7.292956763081245</v>
+        <v>8.20483392644516</v>
       </c>
       <c r="E21">
-        <v>12.47845574376561</v>
+        <v>13.48761321260419</v>
       </c>
       <c r="F21">
-        <v>34.740807244656</v>
+        <v>38.79563736352332</v>
       </c>
       <c r="G21">
-        <v>45.42254584153195</v>
+        <v>45.03515053480248</v>
       </c>
       <c r="H21">
-        <v>12.43364650054514</v>
+        <v>17.85836358487358</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.160343957706085</v>
+        <v>10.12089908276393</v>
       </c>
       <c r="K21">
-        <v>31.92694433763257</v>
+        <v>21.52868305510381</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.71829500949096</v>
+        <v>5.803967822381438</v>
       </c>
       <c r="D22">
-        <v>7.514819711139649</v>
+        <v>8.253770093410713</v>
       </c>
       <c r="E22">
-        <v>12.86156745048902</v>
+        <v>13.55193444922832</v>
       </c>
       <c r="F22">
-        <v>35.77846994665881</v>
+        <v>38.83834655655484</v>
       </c>
       <c r="G22">
-        <v>47.00808454648412</v>
+        <v>45.13680663551277</v>
       </c>
       <c r="H22">
-        <v>12.63432225120481</v>
+        <v>17.82276388787403</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.293757709989493</v>
+        <v>10.12202798496031</v>
       </c>
       <c r="K22">
-        <v>33.15489378365766</v>
+        <v>21.97293295909242</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.518372822443661</v>
+        <v>5.73267036687334</v>
       </c>
       <c r="D23">
-        <v>7.396921570004028</v>
+        <v>8.22763827759376</v>
       </c>
       <c r="E23">
-        <v>12.6574742001756</v>
+        <v>13.5174407025004</v>
       </c>
       <c r="F23">
-        <v>35.22121643143064</v>
+        <v>38.81438737374423</v>
       </c>
       <c r="G23">
-        <v>46.15691184063647</v>
+        <v>45.08081231915688</v>
       </c>
       <c r="H23">
-        <v>12.52500417641184</v>
+        <v>17.84134036852799</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.222139051644421</v>
+        <v>10.12127562403788</v>
       </c>
       <c r="K23">
-        <v>32.50330266216459</v>
+        <v>21.73676440092207</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.738949784326614</v>
+        <v>5.456832869520132</v>
       </c>
       <c r="D24">
-        <v>6.939075360221227</v>
+        <v>8.129022622230485</v>
       </c>
       <c r="E24">
-        <v>11.87601763193282</v>
+        <v>13.39048494347775</v>
       </c>
       <c r="F24">
-        <v>33.18450600397315</v>
+        <v>38.749191651236</v>
       </c>
       <c r="G24">
-        <v>43.03953915599192</v>
+        <v>44.90691150505209</v>
       </c>
       <c r="H24">
-        <v>12.15804722865847</v>
+        <v>17.92096648178196</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.959744068140348</v>
+        <v>10.12171824570635</v>
       </c>
       <c r="K24">
-        <v>29.95052365443554</v>
+        <v>20.82249436801428</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.846907038430776</v>
+        <v>5.148590472141603</v>
       </c>
       <c r="D25">
-        <v>6.421164888557207</v>
+        <v>8.023751803946398</v>
       </c>
       <c r="E25">
-        <v>11.01494226266856</v>
+        <v>13.26187139830134</v>
       </c>
       <c r="F25">
-        <v>31.13712125098827</v>
+        <v>38.73312699033455</v>
       </c>
       <c r="G25">
-        <v>39.89378913429846</v>
+        <v>44.80052525000801</v>
       </c>
       <c r="H25">
-        <v>11.85306719624642</v>
+        <v>18.02641186627226</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.694392944533184</v>
+        <v>10.12922582631263</v>
       </c>
       <c r="K25">
-        <v>27.0051297855534</v>
+        <v>19.79909353781898</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_133/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_133/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.914374398633892</v>
+        <v>7.142525689437249</v>
       </c>
       <c r="D2">
-        <v>7.947514790248945</v>
+        <v>6.019796448038825</v>
       </c>
       <c r="E2">
-        <v>13.174742132032</v>
+        <v>10.36646654633113</v>
       </c>
       <c r="F2">
-        <v>38.767471982248</v>
+        <v>29.75250225430407</v>
       </c>
       <c r="G2">
-        <v>44.79128294397915</v>
+        <v>37.75831313378325</v>
       </c>
       <c r="H2">
-        <v>18.12062112128907</v>
+        <v>11.69697052561093</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.14078818510916</v>
+        <v>6.513252389167466</v>
       </c>
       <c r="K2">
-        <v>19.01930553588639</v>
+        <v>24.66199098027913</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.752283267633945</v>
+        <v>6.633963119720238</v>
       </c>
       <c r="D3">
-        <v>7.896805767506206</v>
+        <v>5.735990228575453</v>
       </c>
       <c r="E3">
-        <v>13.12060197606458</v>
+        <v>9.91929262588382</v>
       </c>
       <c r="F3">
-        <v>38.81922246966382</v>
+        <v>28.88874482478138</v>
       </c>
       <c r="G3">
-        <v>44.82755715438158</v>
+        <v>36.4226158793907</v>
       </c>
       <c r="H3">
-        <v>18.19467524776741</v>
+        <v>11.62901850849486</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.152379113861</v>
+        <v>6.398994577419693</v>
       </c>
       <c r="K3">
-        <v>18.47782554612911</v>
+        <v>22.9609737094841</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.651546961308906</v>
+        <v>6.305859327567341</v>
       </c>
       <c r="D4">
-        <v>7.866196549291487</v>
+        <v>5.556272358343152</v>
       </c>
       <c r="E4">
-        <v>13.08983786114731</v>
+        <v>9.641597921929273</v>
       </c>
       <c r="F4">
-        <v>38.864911999623</v>
+        <v>28.39455103449062</v>
       </c>
       <c r="G4">
-        <v>44.87057412266776</v>
+        <v>35.65719781617394</v>
       </c>
       <c r="H4">
-        <v>18.24513601421002</v>
+        <v>11.60432998666208</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.16134422693544</v>
+        <v>6.332924252004905</v>
       </c>
       <c r="K4">
-        <v>18.14020720115404</v>
+        <v>21.85950327791096</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.610264573821107</v>
+        <v>6.168107174686348</v>
       </c>
       <c r="D5">
-        <v>7.853863581349735</v>
+        <v>5.481731969661419</v>
       </c>
       <c r="E5">
-        <v>13.07793262852692</v>
+        <v>9.527773589316862</v>
       </c>
       <c r="F5">
-        <v>38.8870086403184</v>
+        <v>28.20214758027653</v>
       </c>
       <c r="G5">
-        <v>44.89328051290686</v>
+        <v>35.35897376205729</v>
       </c>
       <c r="H5">
-        <v>18.26694769475153</v>
+        <v>11.59831007766964</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.16546172490762</v>
+        <v>6.30701174795683</v>
       </c>
       <c r="K5">
-        <v>18.001537295394</v>
+        <v>21.39612552270329</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.603397918857534</v>
+        <v>6.144987315461456</v>
       </c>
       <c r="D6">
-        <v>7.851824424944985</v>
+        <v>5.469278136677314</v>
       </c>
       <c r="E6">
-        <v>13.07599413442354</v>
+        <v>9.50883725961693</v>
       </c>
       <c r="F6">
-        <v>38.89088715909174</v>
+        <v>28.17073810896753</v>
       </c>
       <c r="G6">
-        <v>44.89736228544169</v>
+        <v>35.3102778165421</v>
       </c>
       <c r="H6">
-        <v>18.27064472062479</v>
+        <v>11.59754744434587</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.16617344526376</v>
+        <v>6.302769638870006</v>
       </c>
       <c r="K6">
-        <v>17.97845185869432</v>
+        <v>21.31830005231753</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.650991049560919</v>
+        <v>6.304018021784785</v>
       </c>
       <c r="D7">
-        <v>7.866029642853883</v>
+        <v>5.555272258482657</v>
       </c>
       <c r="E7">
-        <v>13.08967473618697</v>
+        <v>9.640065344698728</v>
       </c>
       <c r="F7">
-        <v>38.86519595102842</v>
+        <v>28.39191999723545</v>
       </c>
       <c r="G7">
-        <v>44.87085944563936</v>
+        <v>35.65312055457957</v>
       </c>
       <c r="H7">
-        <v>18.24542512786603</v>
+        <v>11.60423275922256</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.16139787856122</v>
+        <v>6.332570711309852</v>
       </c>
       <c r="K7">
-        <v>18.13834117188807</v>
+        <v>21.85331302045977</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.858779156810874</v>
+        <v>6.970422739664818</v>
       </c>
       <c r="D8">
-        <v>7.929926045837095</v>
+        <v>5.923110270101636</v>
       </c>
       <c r="E8">
-        <v>13.15556542900794</v>
+        <v>10.21299856237023</v>
       </c>
       <c r="F8">
-        <v>38.78241555665657</v>
+        <v>29.44711644330223</v>
       </c>
       <c r="G8">
-        <v>44.79946246730119</v>
+        <v>37.28638290023095</v>
       </c>
       <c r="H8">
-        <v>18.14511512285735</v>
+        <v>11.66985939812419</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.14440079792926</v>
+        <v>6.4729993635216</v>
       </c>
       <c r="K8">
-        <v>18.83379156042855</v>
+        <v>24.08720929417707</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.253691665083892</v>
+        <v>8.15456755075823</v>
       </c>
       <c r="D9">
-        <v>8.059036481984332</v>
+        <v>6.598801263560808</v>
       </c>
       <c r="E9">
-        <v>13.30404566854689</v>
+        <v>11.30736751949794</v>
       </c>
       <c r="F9">
-        <v>38.73132801624955</v>
+        <v>31.807394378401</v>
       </c>
       <c r="G9">
-        <v>44.8255683613028</v>
+        <v>40.92512816402008</v>
       </c>
       <c r="H9">
-        <v>17.9883015070056</v>
+        <v>11.94452059171005</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.12575849490272</v>
+        <v>6.781509258746119</v>
       </c>
       <c r="K9">
-        <v>20.14832106888554</v>
+        <v>28.02379413144768</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.532625868429681</v>
+        <v>8.954365401194972</v>
       </c>
       <c r="D10">
-        <v>8.155717858429089</v>
+        <v>7.065249092740316</v>
       </c>
       <c r="E10">
-        <v>13.42430830883723</v>
+        <v>12.08956204193291</v>
       </c>
       <c r="F10">
-        <v>38.76259916576542</v>
+        <v>33.72519776441054</v>
       </c>
       <c r="G10">
-        <v>44.94769917870005</v>
+        <v>43.86817926342938</v>
       </c>
       <c r="H10">
-        <v>17.89780368532932</v>
+        <v>12.25004257694163</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.12104454207346</v>
+        <v>7.029517903064258</v>
       </c>
       <c r="K10">
-        <v>21.07382084891195</v>
+        <v>30.65802057676188</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.656448000749541</v>
+        <v>9.304103642087192</v>
       </c>
       <c r="D11">
-        <v>8.199988515773597</v>
+        <v>7.270729606359365</v>
       </c>
       <c r="E11">
-        <v>13.48130983141607</v>
+        <v>12.44029998324207</v>
       </c>
       <c r="F11">
-        <v>38.7919226883493</v>
+        <v>34.63944632106077</v>
       </c>
       <c r="G11">
-        <v>45.02584792182532</v>
+        <v>45.26753252042322</v>
       </c>
       <c r="H11">
-        <v>17.86208217821297</v>
+        <v>12.41472740329906</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.12085407813752</v>
+        <v>7.14729913280924</v>
       </c>
       <c r="K11">
-        <v>21.48422390287061</v>
+        <v>31.8034914615015</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.702849411337894</v>
+        <v>9.434618630268131</v>
       </c>
       <c r="D12">
-        <v>8.216785079523611</v>
+        <v>7.347572245832453</v>
       </c>
       <c r="E12">
-        <v>13.50321224594354</v>
+        <v>12.57238644866454</v>
       </c>
       <c r="F12">
-        <v>38.80520623434451</v>
+        <v>34.99188730939934</v>
       </c>
       <c r="G12">
-        <v>45.05869860830145</v>
+        <v>45.80642113314629</v>
       </c>
       <c r="H12">
-        <v>17.84934513312908</v>
+        <v>12.48105026716696</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.12106296647934</v>
+        <v>7.192646837509386</v>
       </c>
       <c r="K12">
-        <v>21.63796907814046</v>
+        <v>32.22993747978277</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.692878396274287</v>
+        <v>9.406593662387431</v>
       </c>
       <c r="D13">
-        <v>8.213166356294115</v>
+        <v>7.331065818946481</v>
       </c>
       <c r="E13">
-        <v>13.49848126906081</v>
+        <v>12.54397145639329</v>
       </c>
       <c r="F13">
-        <v>38.80224835592267</v>
+        <v>34.9157012169147</v>
       </c>
       <c r="G13">
-        <v>45.05147867575287</v>
+        <v>45.68995639680141</v>
       </c>
       <c r="H13">
-        <v>17.85205304642086</v>
+        <v>12.46658602033238</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.12100548131439</v>
+        <v>7.182846583136114</v>
       </c>
       <c r="K13">
-        <v>21.60493345799927</v>
+        <v>32.13841541731161</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.660275487286752</v>
+        <v>9.314879101588758</v>
       </c>
       <c r="D14">
-        <v>8.201369787482077</v>
+        <v>7.277070886236714</v>
       </c>
       <c r="E14">
-        <v>13.48310547369811</v>
+        <v>12.45118135627381</v>
       </c>
       <c r="F14">
-        <v>38.79297181876665</v>
+        <v>34.66831536664694</v>
       </c>
       <c r="G14">
-        <v>45.02848525524552</v>
+        <v>45.3116850907582</v>
       </c>
       <c r="H14">
-        <v>17.86101842477414</v>
+        <v>12.42010291251253</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.12086563184188</v>
+        <v>7.151014736420409</v>
       </c>
       <c r="K14">
-        <v>21.49690674239621</v>
+        <v>31.83872039920703</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.64024050863063</v>
+        <v>9.258454076887995</v>
       </c>
       <c r="D15">
-        <v>8.194147964641768</v>
+        <v>7.243871398447991</v>
       </c>
       <c r="E15">
-        <v>13.47372827723907</v>
+        <v>12.39425009468019</v>
       </c>
       <c r="F15">
-        <v>38.7875736861485</v>
+        <v>34.51760416626954</v>
       </c>
       <c r="G15">
-        <v>45.01482549228703</v>
+        <v>45.08116347760363</v>
       </c>
       <c r="H15">
-        <v>17.86661304524489</v>
+        <v>12.39215439210001</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.12081656505442</v>
+        <v>7.131615146836556</v>
       </c>
       <c r="K15">
-        <v>21.43051644500734</v>
+        <v>31.65420424820712</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.524468012057516</v>
+        <v>8.93123416647026</v>
       </c>
       <c r="D16">
-        <v>8.15282969146482</v>
+        <v>7.051684897440424</v>
       </c>
       <c r="E16">
-        <v>13.42062820854353</v>
+        <v>12.06653764531586</v>
       </c>
       <c r="F16">
-        <v>38.76098738976163</v>
+        <v>33.66630833544946</v>
       </c>
       <c r="G16">
-        <v>44.94304746963446</v>
+        <v>43.777967347239</v>
       </c>
       <c r="H16">
-        <v>17.90024834380861</v>
+        <v>12.23981966314727</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.12109631394284</v>
+        <v>7.021923107785185</v>
       </c>
       <c r="K16">
-        <v>21.04677426346608</v>
+        <v>30.58212122087835</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.452625282199937</v>
+        <v>8.726955721246412</v>
       </c>
       <c r="D17">
-        <v>8.127549782873881</v>
+        <v>6.932060337133175</v>
       </c>
       <c r="E17">
-        <v>13.38863163328007</v>
+        <v>11.86418658741079</v>
       </c>
       <c r="F17">
-        <v>38.74855133924987</v>
+        <v>33.15491380584654</v>
       </c>
       <c r="G17">
-        <v>44.90480842360486</v>
+        <v>42.99416360810674</v>
       </c>
       <c r="H17">
-        <v>17.9222822968123</v>
+        <v>12.15313611912305</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.12176845111241</v>
+        <v>6.955922438597907</v>
       </c>
       <c r="K17">
-        <v>20.80853927543847</v>
+        <v>29.9110874993385</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.411017050743381</v>
+        <v>8.608126787847775</v>
       </c>
       <c r="D18">
-        <v>8.113037294449576</v>
+        <v>6.862623497737443</v>
       </c>
       <c r="E18">
-        <v>13.37044470991657</v>
+        <v>11.74731922443725</v>
       </c>
       <c r="F18">
-        <v>38.7428192436333</v>
+        <v>32.86469355310089</v>
       </c>
       <c r="G18">
-        <v>44.88494056629839</v>
+        <v>42.54901572075766</v>
       </c>
       <c r="H18">
-        <v>17.93546789172781</v>
+        <v>12.10568108900779</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.12233896655937</v>
+        <v>6.918425155818239</v>
       </c>
       <c r="K18">
-        <v>20.67052146768999</v>
+        <v>29.52013357092023</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.396881563383083</v>
+        <v>8.567661372317149</v>
       </c>
       <c r="D19">
-        <v>8.108128685389037</v>
+        <v>6.839005126838119</v>
       </c>
       <c r="E19">
-        <v>13.36432451759952</v>
+        <v>11.70766782362645</v>
       </c>
       <c r="F19">
-        <v>38.74112217791173</v>
+        <v>32.76709775137282</v>
       </c>
       <c r="G19">
-        <v>44.87857845554043</v>
+        <v>42.39926464030028</v>
       </c>
       <c r="H19">
-        <v>17.94002007927481</v>
+        <v>12.09001840605696</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.1225637183139</v>
+        <v>6.905808120014596</v>
       </c>
       <c r="K19">
-        <v>20.62362522623256</v>
+        <v>29.38689761811182</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.460303035792886</v>
+        <v>8.748838796040079</v>
       </c>
       <c r="D20">
-        <v>8.130238058657387</v>
+        <v>6.944860041709921</v>
       </c>
       <c r="E20">
-        <v>13.3920153895428</v>
+        <v>11.88577699528143</v>
       </c>
       <c r="F20">
-        <v>38.74972806297396</v>
+        <v>33.20894552537104</v>
       </c>
       <c r="G20">
-        <v>44.90865889401325</v>
+        <v>43.07701188476554</v>
       </c>
       <c r="H20">
-        <v>17.91988368023272</v>
+        <v>12.16211313013694</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.12167786527288</v>
+        <v>6.962900026924097</v>
       </c>
       <c r="K20">
-        <v>20.83400345213321</v>
+        <v>29.98303500436272</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.669865322590638</v>
+        <v>9.341869208340732</v>
       </c>
       <c r="D21">
-        <v>8.20483392644516</v>
+        <v>7.29295676308123</v>
       </c>
       <c r="E21">
-        <v>13.48761321260419</v>
+        <v>12.47845574376555</v>
       </c>
       <c r="F21">
-        <v>38.79563736352332</v>
+        <v>34.74080724465594</v>
       </c>
       <c r="G21">
-        <v>45.03515053480248</v>
+        <v>45.4225458415319</v>
       </c>
       <c r="H21">
-        <v>17.85836358487358</v>
+        <v>12.43364650054518</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.12089908276393</v>
+        <v>7.160343957706046</v>
       </c>
       <c r="K21">
-        <v>21.52868305510381</v>
+        <v>31.92694433763252</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.803967822381438</v>
+        <v>9.718295009491021</v>
       </c>
       <c r="D22">
-        <v>8.253770093410713</v>
+        <v>7.514819711139594</v>
       </c>
       <c r="E22">
-        <v>13.55193444922832</v>
+        <v>12.86156745048901</v>
       </c>
       <c r="F22">
-        <v>38.83834655655484</v>
+        <v>35.77846994665887</v>
       </c>
       <c r="G22">
-        <v>45.13680663551277</v>
+        <v>47.00808454648421</v>
       </c>
       <c r="H22">
-        <v>17.82276388787403</v>
+        <v>12.63432225120487</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.12202798496031</v>
+        <v>7.293757709989481</v>
       </c>
       <c r="K22">
-        <v>21.97293295909242</v>
+        <v>33.15489378365761</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.73267036687334</v>
+        <v>9.518372822443624</v>
       </c>
       <c r="D23">
-        <v>8.22763827759376</v>
+        <v>7.396921570003943</v>
       </c>
       <c r="E23">
-        <v>13.5174407025004</v>
+        <v>12.65747420017556</v>
       </c>
       <c r="F23">
-        <v>38.81438737374423</v>
+        <v>35.22121643143061</v>
       </c>
       <c r="G23">
-        <v>45.08081231915688</v>
+        <v>46.15691184063648</v>
       </c>
       <c r="H23">
-        <v>17.84134036852799</v>
+        <v>12.52500417641177</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.12127562403788</v>
+        <v>7.222139051644365</v>
       </c>
       <c r="K23">
-        <v>21.73676440092207</v>
+        <v>32.50330266216464</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.456832869520132</v>
+        <v>8.73894978432655</v>
       </c>
       <c r="D24">
-        <v>8.129022622230485</v>
+        <v>6.939075360221275</v>
       </c>
       <c r="E24">
-        <v>13.39048494347775</v>
+        <v>11.87601763193285</v>
       </c>
       <c r="F24">
-        <v>38.749191651236</v>
+        <v>33.18450600397323</v>
       </c>
       <c r="G24">
-        <v>44.90691150505209</v>
+        <v>43.03953915599197</v>
       </c>
       <c r="H24">
-        <v>17.92096648178196</v>
+        <v>12.15804722865855</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.12171824570635</v>
+        <v>6.959744068140374</v>
       </c>
       <c r="K24">
-        <v>20.82249436801428</v>
+        <v>29.95052365443546</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.148590472141603</v>
+        <v>7.846907038430722</v>
       </c>
       <c r="D25">
-        <v>8.023751803946398</v>
+        <v>6.421164888557171</v>
       </c>
       <c r="E25">
-        <v>13.26187139830134</v>
+        <v>11.01494226266855</v>
       </c>
       <c r="F25">
-        <v>38.73312699033455</v>
+        <v>31.13712125098822</v>
       </c>
       <c r="G25">
-        <v>44.80052525000801</v>
+        <v>39.89378913429842</v>
       </c>
       <c r="H25">
-        <v>18.02641186627226</v>
+        <v>11.85306719624642</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.12922582631263</v>
+        <v>6.694392944533177</v>
       </c>
       <c r="K25">
-        <v>19.79909353781898</v>
+        <v>27.00512978555346</v>
       </c>
       <c r="L25">
         <v>0</v>
